--- a/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.099387872664781</v>
+        <v>-1.112655705804476</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.483541154706735</v>
+        <v>-1.514928205685068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9973962945398686</v>
+        <v>-0.8760712111352956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4977210512957917</v>
+        <v>0.3683858578002054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4348241248318803</v>
+        <v>-0.4201321313121867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6658213000295546</v>
+        <v>-0.6013577124968639</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09668301162305144</v>
+        <v>0.1387328603407497</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4392057366676064</v>
+        <v>0.4307570510896047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.479022907260008</v>
+        <v>2.30359179813005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.351509294851561</v>
+        <v>1.384946764649643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.934826108446379</v>
+        <v>2.6945218788573</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.518945770497634</v>
+        <v>2.090450908250236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.636632576698386</v>
+        <v>1.403240218435728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.832231920108827</v>
+        <v>3.589980290525672</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.269335422531322</v>
+        <v>4.234090225089522</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3321414361649193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8699399826743174</v>
+        <v>0.8699399826743177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0532770661421388</v>
@@ -749,7 +749,7 @@
         <v>0.2656698803940889</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4565556791079139</v>
+        <v>0.4565556791079141</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.154426978815964</v>
+        <v>-1.112581624958461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8682926789098463</v>
+        <v>-0.7852846472068106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7637274956650637</v>
+        <v>-0.6787180073622291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4297964217459669</v>
+        <v>-0.2279375365320669</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6484922432933835</v>
+        <v>-0.6336376751270733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4463511813371967</v>
+        <v>-0.4058494680380746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4644394849704117</v>
+        <v>-0.4420918000135196</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1802288070744138</v>
+        <v>-0.1232657043480784</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9332988067292216</v>
+        <v>0.9557515735690827</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.306956043379739</v>
+        <v>1.453515147560259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.381766753447938</v>
+        <v>1.458784171371108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.106966106347719</v>
+        <v>2.013303330156544</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.578988556387582</v>
+        <v>1.329035178006575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.265246310768207</v>
+        <v>1.350413948633319</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.850136926804977</v>
+        <v>1.876543811569519</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.628493513077117</v>
+        <v>1.534197204205267</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5361764303828959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4521631031609911</v>
+        <v>0.4521631031609918</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.387890482240593</v>
@@ -849,7 +849,7 @@
         <v>0.8977145848767928</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1468354562326008</v>
+        <v>0.1468354562326011</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08849234180632333</v>
+        <v>0.2044247134611092</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.104138562185633</v>
+        <v>-1.058036384258023</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3915222507424984</v>
+        <v>-0.4375829845722675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.570257384405298</v>
+        <v>-1.292957657985011</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3144881906146221</v>
+        <v>-0.2332293564529271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6556004431903888</v>
+        <v>-0.6584096507944143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6104317964124196</v>
+        <v>-0.5979757319486664</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3858335046500667</v>
+        <v>-0.3473185918833982</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.549762537932205</v>
+        <v>2.551912700217615</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.124070507480624</v>
+        <v>1.186192633073217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.663998907704746</v>
+        <v>1.608445663508528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.387738619081041</v>
+        <v>2.32330978415532</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>16.41804889877971</v>
+        <v>15.33399263592584</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.139106189566536</v>
+        <v>2.827131289347375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.319737466782497</v>
+        <v>7.080599544718308</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.037627828438119</v>
+        <v>1.124888543538994</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.469265517144855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3557095654337927</v>
+        <v>0.3557095654337931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2201122651289291</v>
@@ -949,7 +949,7 @@
         <v>1.810614613789997</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1213820697822787</v>
+        <v>0.1213820697822788</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7712846705759034</v>
+        <v>-0.7217144741000866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.189548862646273</v>
+        <v>-1.408227905121654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.376630280227987</v>
+        <v>0.4328234543263279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.26715522349471</v>
+        <v>-1.401842266382714</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5451274493790056</v>
+        <v>-0.5431701694738456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4304467961025299</v>
+        <v>-0.4490084985198843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1615074777290268</v>
+        <v>0.2633816855502956</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3222273305457296</v>
+        <v>-0.3448941294962737</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.135279054554287</v>
+        <v>1.16670215582748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.430864671136056</v>
+        <v>1.571428456711446</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.658841157219707</v>
+        <v>2.768174716121848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.665547585737647</v>
+        <v>1.701952318773816</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.355001206554438</v>
+        <v>2.281149184703607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8696796756283278</v>
+        <v>0.9893180673399333</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.722892148230525</v>
+        <v>6.719736266103351</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7715557757986612</v>
+        <v>0.8721207342882874</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.7197047690679905</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3307697597021627</v>
+        <v>0.3307697597021628</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.230306716954498</v>
+        <v>-0.2143586718588527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5527224269434304</v>
+        <v>-0.4393699511170699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1210868426539431</v>
+        <v>0.1400049259964181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.05568166508225453</v>
+        <v>0.03726080414364863</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2268405880230958</v>
+        <v>-0.1869246622831103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2432882781696188</v>
+        <v>-0.2084376417479641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06856731246161446</v>
+        <v>0.09684218182360603</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01823395917887952</v>
+        <v>0.01438110337602742</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7948929925822437</v>
+        <v>0.7535688539032906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9173260542850902</v>
+        <v>0.9185822683438597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.280662567690044</v>
+        <v>1.214946541113324</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.41872168631242</v>
+        <v>1.46664471705703</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.160531774282355</v>
+        <v>1.130946403396456</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.597450532323816</v>
+        <v>0.627781821567273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.835380001201342</v>
+        <v>1.652417011264639</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7340616804251606</v>
+        <v>0.790939169379569</v>
       </c>
     </row>
     <row r="19">
